--- a/static/templates/IT_Training_Needs_Assessment.xlsx
+++ b/static/templates/IT_Training_Needs_Assessment.xlsx
@@ -558,7 +558,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>PRODUCT Training Needs Assessment Project</t>
+          <t>IT Training Needs Assessment Project</t>
         </is>
       </c>
     </row>
@@ -898,7 +898,7 @@
     <row r="34">
       <c r="A34" s="5" t="inlineStr">
         <is>
-          <t>• Develop advanced technical tracks for IT and IT operations teams</t>
+          <t>• Develop advanced technical tracks for IT and data science teams</t>
         </is>
       </c>
       <c r="B34" s="6" t="n"/>
@@ -1172,7 +1172,7 @@
       </c>
       <c r="K5" s="5" t="inlineStr">
         <is>
-          <t>Focus on latest automation scripts</t>
+          <t>Focus on latest algorithms</t>
         </is>
       </c>
     </row>
@@ -1272,7 +1272,7 @@
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>Production monitoring focus</t>
+          <t>ITion monitoring focus</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1422,7 @@
       </c>
       <c r="K10" s="5" t="inlineStr">
         <is>
-          <t>Production focus needed</t>
+          <t>ITion focus needed</t>
         </is>
       </c>
     </row>

--- a/static/templates/IT_Training_Needs_Assessment.xlsx
+++ b/static/templates/IT_Training_Needs_Assessment.xlsx
@@ -585,7 +585,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Enterprise Cloud Infrastructure Migration</t>
+          <t>Enterprise AI/ML Implementation</t>
         </is>
       </c>
     </row>
@@ -661,7 +661,6 @@
         </is>
       </c>
     </row>
-    <row r="13"/>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
@@ -753,7 +752,6 @@
       <c r="G20" s="6" t="n"/>
       <c r="H20" s="7" t="n"/>
     </row>
-    <row r="21"/>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
@@ -764,7 +762,7 @@
     <row r="23">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>• 85% of users have no prior experience with IT technologies</t>
+          <t>• 85% of users have no prior experience with AI/ML technologies</t>
         </is>
       </c>
       <c r="B23" s="6" t="n"/>
@@ -845,7 +843,6 @@
       <c r="G28" s="6" t="n"/>
       <c r="H28" s="7" t="n"/>
     </row>
-    <row r="29"/>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
@@ -884,7 +881,7 @@
     <row r="33">
       <c r="A33" s="5" t="inlineStr">
         <is>
-          <t>• Create IT fundamentals course for all employees</t>
+          <t>• Create AI/ML fundamentals course for all employees</t>
         </is>
       </c>
       <c r="B33" s="6" t="n"/>
@@ -1018,7 +1015,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
@@ -1272,7 +1268,7 @@
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>ITion monitoring focus</t>
+          <t>Production monitoring focus</t>
         </is>
       </c>
     </row>
@@ -1422,7 +1418,7 @@
       </c>
       <c r="K10" s="5" t="inlineStr">
         <is>
-          <t>ITion focus needed</t>
+          <t>Production focus needed</t>
         </is>
       </c>
     </row>
@@ -2625,7 +2621,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
@@ -2782,7 +2777,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>Limited IT expertise</t>
+          <t>Limited AI/ML expertise</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -3154,7 +3149,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
@@ -3210,7 +3204,7 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>IT fundamentals course covering basic concepts, terminology, and use cases</t>
+          <t>AI/ML fundamentals course covering basic concepts, terminology, and use cases</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -3294,7 +3288,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>Business-focused IT training for analysts and business users</t>
+          <t>Business-focused AI/ML training for analysts and business users</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -4083,7 +4077,6 @@
         </is>
       </c>
     </row>
-    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>

--- a/static/templates/IT_Training_Needs_Assessment.xlsx
+++ b/static/templates/IT_Training_Needs_Assessment.xlsx
@@ -585,7 +585,7 @@
       </c>
       <c r="B6" s="5" t="inlineStr">
         <is>
-          <t>Enterprise AI/ML Implementation</t>
+          <t>Enterprise Cloud Infrastructure Migration</t>
         </is>
       </c>
     </row>
@@ -661,6 +661,7 @@
         </is>
       </c>
     </row>
+    <row r="13"/>
     <row r="14">
       <c r="A14" s="3" t="inlineStr">
         <is>
@@ -752,6 +753,7 @@
       <c r="G20" s="6" t="n"/>
       <c r="H20" s="7" t="n"/>
     </row>
+    <row r="21"/>
     <row r="22">
       <c r="A22" s="3" t="inlineStr">
         <is>
@@ -762,7 +764,7 @@
     <row r="23">
       <c r="A23" s="5" t="inlineStr">
         <is>
-          <t>• 85% of users have no prior experience with AI/ML technologies</t>
+          <t>• 85% of users have no prior experience with IT technologies</t>
         </is>
       </c>
       <c r="B23" s="6" t="n"/>
@@ -843,6 +845,7 @@
       <c r="G28" s="6" t="n"/>
       <c r="H28" s="7" t="n"/>
     </row>
+    <row r="29"/>
     <row r="30">
       <c r="A30" s="3" t="inlineStr">
         <is>
@@ -881,7 +884,7 @@
     <row r="33">
       <c r="A33" s="5" t="inlineStr">
         <is>
-          <t>• Create AI/ML fundamentals course for all employees</t>
+          <t>• Create IT fundamentals course for all employees</t>
         </is>
       </c>
       <c r="B33" s="6" t="n"/>
@@ -1015,6 +1018,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
@@ -1268,7 +1272,7 @@
       </c>
       <c r="K7" s="5" t="inlineStr">
         <is>
-          <t>Production monitoring focus</t>
+          <t>ITion monitoring focus</t>
         </is>
       </c>
     </row>
@@ -1418,7 +1422,7 @@
       </c>
       <c r="K10" s="5" t="inlineStr">
         <is>
-          <t>Production focus needed</t>
+          <t>ITion focus needed</t>
         </is>
       </c>
     </row>
@@ -2621,6 +2625,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
@@ -2777,7 +2782,7 @@
       </c>
       <c r="B7" s="5" t="inlineStr">
         <is>
-          <t>Limited AI/ML expertise</t>
+          <t>Limited IT expertise</t>
         </is>
       </c>
       <c r="C7" s="5" t="inlineStr">
@@ -3149,6 +3154,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
@@ -3204,7 +3210,7 @@
       </c>
       <c r="C4" s="5" t="inlineStr">
         <is>
-          <t>AI/ML fundamentals course covering basic concepts, terminology, and use cases</t>
+          <t>IT fundamentals course covering basic concepts, terminology, and use cases</t>
         </is>
       </c>
       <c r="D4" s="5" t="inlineStr">
@@ -3288,7 +3294,7 @@
       </c>
       <c r="C6" s="5" t="inlineStr">
         <is>
-          <t>Business-focused AI/ML training for analysts and business users</t>
+          <t>Business-focused IT training for analysts and business users</t>
         </is>
       </c>
       <c r="D6" s="5" t="inlineStr">
@@ -4077,6 +4083,7 @@
         </is>
       </c>
     </row>
+    <row r="2"/>
     <row r="3">
       <c r="A3" s="9" t="inlineStr">
         <is>
